--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_2_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1159637.452801483</v>
+        <v>1157749.871285081</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>150.7923813103634</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>26.99995778729098</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,16 +817,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>58.94036353858992</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>134.9198292231118</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>144.436661038483</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>65.42524580255755</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>62.27914576410203</v>
       </c>
       <c r="S7" t="n">
-        <v>140.1965940131591</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>305.6098606860683</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>318.564361925059</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>8.389005322401616</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>77.15919157187234</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>142.7490173809991</v>
+        <v>62.12175303942892</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1579,16 +1579,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174145</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,13 +1816,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>104.4356141147657</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>27.82744888912018</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722634</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2011,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>118.4898845065123</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>139.1537278750035</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634821</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2087,7 +2087,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,19 +2236,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>78.46129407658341</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2287,16 +2287,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>24.32276211751077</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2527,22 +2527,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>122.0153542106074</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>159.7023325785549</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>6.927294017885941</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>118.4898845065126</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -2773,10 +2773,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533803</v>
+        <v>124.6287235533801</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700709</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965538</v>
+        <v>93.41221638965519</v>
       </c>
       <c r="E31" t="n">
-        <v>91.2307060180122</v>
+        <v>91.230706018012</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437407</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348206</v>
+        <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897916</v>
+        <v>93.71057173897896</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571502</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523582</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>91.05068360661625</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700204</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
-        <v>196.934386695271</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>231.319741708034</v>
+        <v>231.3197417080338</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604802</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235378</v>
+        <v>162.0639024571274</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373545</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,22 +3424,22 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898721</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
         <v>98.36167833373696</v>
       </c>
       <c r="H37" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
         <v>42.28735533463136</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
         <v>42.28735533463134</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898721</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
         <v>42.28735533463136</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>402.0066065949742</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="C2" t="n">
-        <v>402.0066065949742</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D2" t="n">
-        <v>402.0066065949742</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>402.0066065949742</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>395.0611058457707</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2489.804864871581</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2489.804864871581</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2236.043079509672</v>
+        <v>2438.670229229258</v>
       </c>
       <c r="V2" t="n">
-        <v>1904.980192166102</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="W2" t="n">
-        <v>1552.211536895988</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="X2" t="n">
-        <v>1178.745778634908</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="Y2" t="n">
-        <v>788.606446659096</v>
+        <v>2107.607341885688</v>
       </c>
     </row>
     <row r="3">
@@ -4407,31 +4407,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>337.1618402196266</v>
+        <v>261.391796148808</v>
       </c>
       <c r="C4" t="n">
-        <v>337.1618402196266</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D4" t="n">
-        <v>337.1618402196266</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
-        <v>337.1618402196266</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>591.8463284255134</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>591.8463284255134</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="T4" t="n">
-        <v>591.8463284255134</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U4" t="n">
-        <v>591.8463284255134</v>
+        <v>261.391796148808</v>
       </c>
       <c r="V4" t="n">
-        <v>337.1618402196266</v>
+        <v>261.391796148808</v>
       </c>
       <c r="W4" t="n">
-        <v>337.1618402196266</v>
+        <v>261.391796148808</v>
       </c>
       <c r="X4" t="n">
-        <v>337.1618402196266</v>
+        <v>261.391796148808</v>
       </c>
       <c r="Y4" t="n">
-        <v>337.1618402196266</v>
+        <v>261.391796148808</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1198.22326060983</v>
+        <v>1463.674302457628</v>
       </c>
       <c r="C5" t="n">
-        <v>1198.22326060983</v>
+        <v>1463.674302457628</v>
       </c>
       <c r="D5" t="n">
-        <v>839.9575620030796</v>
+        <v>1105.408603850877</v>
       </c>
       <c r="E5" t="n">
-        <v>454.1693094048354</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F5" t="n">
-        <v>447.2238086556319</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036447</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205146</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.288858935032</v>
+        <v>1837.140060718708</v>
       </c>
       <c r="X5" t="n">
-        <v>1584.823100673952</v>
+        <v>1463.674302457628</v>
       </c>
       <c r="Y5" t="n">
-        <v>1584.823100673952</v>
+        <v>1463.674302457628</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036447</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.806220357135</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>359.2080756496231</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C7" t="n">
-        <v>190.2718927217162</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D7" t="n">
-        <v>190.2718927217162</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2718927217162</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064346</v>
+        <v>665.2207561618867</v>
       </c>
       <c r="S7" t="n">
-        <v>586.5162629810213</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="T7" t="n">
-        <v>359.2080756496231</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="U7" t="n">
-        <v>359.2080756496231</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="V7" t="n">
-        <v>359.2080756496231</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="W7" t="n">
-        <v>359.2080756496231</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="X7" t="n">
-        <v>359.2080756496231</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y7" t="n">
-        <v>359.2080756496231</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1036.358670716696</v>
+        <v>1173.337372245452</v>
       </c>
       <c r="C8" t="n">
-        <v>1036.358670716696</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4832,22 +4832,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2134.880026519315</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W8" t="n">
-        <v>1813.097842756629</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X8" t="n">
-        <v>1813.097842756629</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="Y8" t="n">
-        <v>1422.958510780817</v>
+        <v>1173.337372245452</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4881,43 +4881,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036445</v>
+        <v>507.3364050629043</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036445</v>
+        <v>507.3364050629043</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036445</v>
+        <v>357.2197656505685</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>209.3066720681754</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>62.41672457026507</v>
       </c>
       <c r="G10" t="n">
         <v>53.94298182036445</v>
@@ -4984,28 +4984,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>502.0437482952929</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036445</v>
+        <v>507.3364050629043</v>
       </c>
     </row>
     <row r="11">
@@ -5024,25 +5024,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,16 +5057,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5115,22 +5115,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>1247.466478653857</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>2013.406634128704</v>
       </c>
       <c r="O12" t="n">
         <v>2331.418122136705</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>879.2482765610113</v>
+        <v>413.0432218861031</v>
       </c>
       <c r="C13" t="n">
-        <v>710.3120936331044</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D13" t="n">
-        <v>560.1954542207686</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383755</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5206,43 +5206,43 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>986.0022165609666</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352015</v>
+        <v>986.0022165609666</v>
       </c>
       <c r="W13" t="n">
-        <v>1244.231782352015</v>
+        <v>696.585046524006</v>
       </c>
       <c r="X13" t="n">
-        <v>1244.231782352015</v>
+        <v>696.585046524006</v>
       </c>
       <c r="Y13" t="n">
-        <v>1023.439203208485</v>
+        <v>475.7924673804758</v>
       </c>
     </row>
     <row r="14">
@@ -5261,19 +5261,19 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823787</v>
@@ -5282,46 +5282,46 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5331,16 +5331,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E15" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
         <v>358.2718071316295</v>
@@ -5352,25 +5352,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>412.6079778147081</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>659.3731057211721</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M15" t="n">
-        <v>1039.489963795367</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>1433.546326320615</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5391,7 +5391,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W15" t="n">
         <v>1571.258395043133</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>560.1954542207687</v>
+        <v>710.6134626728256</v>
       </c>
       <c r="C16" t="n">
-        <v>560.1954542207687</v>
+        <v>710.6134626728256</v>
       </c>
       <c r="D16" t="n">
-        <v>560.1954542207687</v>
+        <v>710.6134626728256</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2823606383756</v>
+        <v>562.7003690904324</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404653</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028589</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
         <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5464,22 +5464,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1393.425751250058</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1104.297112463616</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V16" t="n">
-        <v>849.6126242577293</v>
+        <v>1181.679097540026</v>
       </c>
       <c r="W16" t="n">
-        <v>560.1954542207687</v>
+        <v>892.2619275030653</v>
       </c>
       <c r="X16" t="n">
-        <v>560.1954542207687</v>
+        <v>892.2619275030653</v>
       </c>
       <c r="Y16" t="n">
-        <v>560.1954542207687</v>
+        <v>892.2619275030653</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5489,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5528,37 +5528,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>412.6079778147083</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>745.6707680030228</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1514.038914395484</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>216.9038434870661</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="C19" t="n">
-        <v>216.9038434870661</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="D19" t="n">
-        <v>216.9038434870661</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="E19" t="n">
-        <v>216.9038434870661</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5698,25 +5698,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557903</v>
+        <v>1158.436939387593</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>955.1031435655742</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>665.6859735286135</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>437.6964226305962</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="Y19" t="n">
-        <v>216.9038434870661</v>
+        <v>97.21709146028581</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5747,55 +5747,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>498.905640096559</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>745.6707680030231</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>324.3840174432684</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C22" t="n">
-        <v>245.130185042679</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D22" t="n">
-        <v>245.130185042679</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E22" t="n">
-        <v>97.2170914602859</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F22" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>1498.916270557903</v>
+        <v>786.0822064765183</v>
       </c>
       <c r="V22" t="n">
-        <v>1244.231782352016</v>
+        <v>761.5137598931741</v>
       </c>
       <c r="W22" t="n">
-        <v>954.8146123150556</v>
+        <v>472.0965898562135</v>
       </c>
       <c r="X22" t="n">
-        <v>726.8250614170382</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y22" t="n">
-        <v>506.0324822735081</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155909</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805463</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>154.3878371814093</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>303.4575213834692</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>550.2226492899333</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>857.5427825698951</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>711.3743239205529</v>
+        <v>542.4381409926459</v>
       </c>
       <c r="C25" t="n">
-        <v>542.438140992646</v>
+        <v>542.4381409926459</v>
       </c>
       <c r="D25" t="n">
-        <v>542.438140992646</v>
+        <v>542.4381409926459</v>
       </c>
       <c r="E25" t="n">
         <v>394.5250474102529</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123426</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1375.668438021935</v>
       </c>
       <c r="U25" t="n">
-        <v>1275.130855347408</v>
+        <v>1086.539799235494</v>
       </c>
       <c r="V25" t="n">
-        <v>1275.130855347408</v>
+        <v>831.8553110296066</v>
       </c>
       <c r="W25" t="n">
-        <v>1113.815367894323</v>
+        <v>542.4381409926459</v>
       </c>
       <c r="X25" t="n">
-        <v>1113.815367894323</v>
+        <v>542.4381409926459</v>
       </c>
       <c r="Y25" t="n">
-        <v>893.0227887507925</v>
+        <v>542.4381409926459</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6209,34 +6209,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643324</v>
@@ -6248,28 +6248,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>552.6620995918047</v>
+        <v>97.21709146028579</v>
       </c>
       <c r="C28" t="n">
-        <v>552.6620995918047</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="D28" t="n">
-        <v>402.5454601794689</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="E28" t="n">
-        <v>254.6323665970758</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688074</v>
+        <v>259.7851881688075</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799367</v>
       </c>
       <c r="M28" t="n">
         <v>779.0639759471195</v>
@@ -6409,25 +6409,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557903</v>
+        <v>1379.229518531122</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557903</v>
+        <v>1379.229518531122</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771462</v>
+        <v>1090.10087974468</v>
       </c>
       <c r="V28" t="n">
-        <v>955.1031435655746</v>
+        <v>835.4163915387936</v>
       </c>
       <c r="W28" t="n">
-        <v>955.1031435655746</v>
+        <v>545.9992215018332</v>
       </c>
       <c r="X28" t="n">
-        <v>955.1031435655746</v>
+        <v>318.0096706038158</v>
       </c>
       <c r="Y28" t="n">
-        <v>734.3105644220444</v>
+        <v>97.21709146028576</v>
       </c>
     </row>
     <row r="29">
@@ -6440,10 +6440,10 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6452,13 +6452,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823787</v>
@@ -6479,13 +6479,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6537,28 +6537,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
-        <v>1103.683698656582</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.7457372049861</v>
+        <v>695.1010933248429</v>
       </c>
       <c r="C31" t="n">
-        <v>546.5704195584499</v>
+        <v>581.9257756783068</v>
       </c>
       <c r="D31" t="n">
-        <v>452.2146454274848</v>
+        <v>487.5700015473419</v>
       </c>
       <c r="E31" t="n">
-        <v>360.0624171264624</v>
+        <v>395.4177732463197</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264624</v>
+        <v>304.2886910297802</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276537</v>
+        <v>191.8742346309717</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864671</v>
+        <v>164.2510079864673</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933501</v>
+        <v>369.0876362933503</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667507</v>
+        <v>671.4509053667512</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962048</v>
+        <v>997.6688721962056</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353692</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021646</v>
+        <v>1842.641396021648</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.81182489927</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="S31" t="n">
-        <v>1788.841437417838</v>
+        <v>1791.966918252998</v>
       </c>
       <c r="T31" t="n">
-        <v>1788.841437417838</v>
+        <v>1623.942368323875</v>
       </c>
       <c r="U31" t="n">
-        <v>1555.473663912767</v>
+        <v>1390.574594818804</v>
       </c>
       <c r="V31" t="n">
-        <v>1356.550040988251</v>
+        <v>1390.574594818804</v>
       </c>
       <c r="W31" t="n">
-        <v>1122.893736232661</v>
+        <v>1156.918290063214</v>
       </c>
       <c r="X31" t="n">
-        <v>950.6650506160146</v>
+        <v>984.6896044465677</v>
       </c>
       <c r="Y31" t="n">
-        <v>785.6333367538551</v>
+        <v>820.9886928737117</v>
       </c>
     </row>
     <row r="32">
@@ -6677,70 +6677,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,7 +6774,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6786,7 +6786,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6795,10 +6795,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108323</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229664</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506718</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083197</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504504</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,13 +6856,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254954</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649689</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6895,13 +6895,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045207</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010309</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6926,46 +6926,46 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -6977,10 +6977,10 @@
         <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7011,31 +7011,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J36" t="n">
-        <v>154.3878371814097</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K36" t="n">
-        <v>303.4575213834695</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L36" t="n">
-        <v>550.2226492899335</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M36" t="n">
-        <v>857.5427825698952</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649689</v>
@@ -7105,7 +7105,7 @@
         <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
         <v>1688.186490350129</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7151,34 +7151,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7260,7 +7260,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7269,10 +7269,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504509</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>177.0503551525401</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7372,7 +7372,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y40" t="n">
         <v>772.2886129010315</v>
@@ -7400,22 +7400,22 @@
         <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822457</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
@@ -7488,28 +7488,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>745.6707680030233</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229665</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506719</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7570,7 +7570,7 @@
         <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7594,25 +7594,25 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045201</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="44">
@@ -7637,10 +7637,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7725,25 +7725,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7810,7 +7810,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.658803395178</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783515</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,16 +8772,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>38.86002301949884</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298479</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,31 +9003,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>73.53204524670076</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>96.03744927814694</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9243,13 +9243,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>87.16935584025282</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,13 +9480,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>87.16935584025333</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>15.838049046228</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,19 +9726,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776744</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,28 +10191,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>409.7003683229581</v>
       </c>
       <c r="N30" t="n">
-        <v>96.03744927814694</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>15.83804904622848</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10674,19 +10674,19 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>277.6717966208072</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10823,7 +10823,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776752</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,16 +11136,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>213.2603911806626</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>37.08296280093822</v>
+        <v>117.7102271425084</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23467,16 +23467,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23704,13 +23704,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>117.1119469436236</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>224.3101944347078</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23899,7 +23899,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>26.93116351641892</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23938,10 +23938,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,19 +24124,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>88.78552702204442</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24175,16 +24175,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>227.8148812063172</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24415,22 +24415,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>99.53220684778194</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>126.8206657580361</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>138.4937540050453</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -24649,7 +24649,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>79.43092547709067</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -24661,10 +24661,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24847,7 +24847,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437427</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571482</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24883,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>54.76109577523562</v>
       </c>
       <c r="S31" t="n">
-        <v>51.66686974843003</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298323</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>196.9343866952708</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>1.317494266410186</v>
       </c>
     </row>
     <row r="32">
@@ -25087,7 +25087,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>1.49213974509621e-12</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>972279.0722882503</v>
+        <v>972279.0722882502</v>
       </c>
     </row>
     <row r="7">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>431046.9291787488</v>
+        <v>431046.9291787486</v>
       </c>
       <c r="C2" t="n">
         <v>431046.9291787487</v>
@@ -26323,34 +26323,34 @@
         <v>410580.5127245943</v>
       </c>
       <c r="F2" t="n">
-        <v>410580.5127245944</v>
+        <v>410580.5127245943</v>
       </c>
       <c r="G2" t="n">
         <v>410580.5127245943</v>
       </c>
       <c r="H2" t="n">
+        <v>410580.5127245944</v>
+      </c>
+      <c r="I2" t="n">
+        <v>410580.5127245942</v>
+      </c>
+      <c r="J2" t="n">
         <v>410580.5127245943</v>
       </c>
-      <c r="I2" t="n">
-        <v>410580.5127245943</v>
-      </c>
-      <c r="J2" t="n">
-        <v>410580.5127245944</v>
-      </c>
       <c r="K2" t="n">
-        <v>427163.2442125332</v>
+        <v>427163.2442125333</v>
       </c>
       <c r="L2" t="n">
         <v>431046.9291787486</v>
       </c>
       <c r="M2" t="n">
-        <v>431046.9291787486</v>
+        <v>431046.9291787487</v>
       </c>
       <c r="N2" t="n">
-        <v>431046.9291787486</v>
+        <v>431046.9291787487</v>
       </c>
       <c r="O2" t="n">
-        <v>431046.9291787486</v>
+        <v>431046.9291787487</v>
       </c>
       <c r="P2" t="n">
         <v>431046.9291787486</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
-        <v>1.30296939460095e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.651701151989983e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.6053028454</v>
+        <v>44162.60530284572</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086695</v>
+        <v>10342.90680086677</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
-        <v>1.11379904410569e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284559</v>
+        <v>44162.60530284575</v>
       </c>
     </row>
     <row r="4">
@@ -26427,28 +26427,28 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143904</v>
+        <v>15045.66962143911</v>
       </c>
       <c r="G4" t="n">
-        <v>15045.66962143902</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.66962143903</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>15045.66962143907</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>33210.29213563562</v>
+        <v>33210.29213563568</v>
       </c>
       <c r="L4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275958</v>
       </c>
       <c r="M4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275964</v>
       </c>
       <c r="N4" t="n">
         <v>37464.45686275957</v>
@@ -26457,7 +26457,7 @@
         <v>37464.45686275957</v>
       </c>
       <c r="P4" t="n">
-        <v>37464.45686275957</v>
+        <v>37464.45686275959</v>
       </c>
     </row>
     <row r="5">
@@ -26470,43 +26470,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
-      <c r="F5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871667</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871667</v>
-      </c>
       <c r="I5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022282</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26522,46 +26522,46 @@
         <v>-398554.9863504278</v>
       </c>
       <c r="C6" t="n">
+        <v>191412.8928641166</v>
+      </c>
+      <c r="D6" t="n">
         <v>191412.8928641167</v>
       </c>
-      <c r="D6" t="n">
-        <v>191412.8928641166</v>
-      </c>
       <c r="E6" t="n">
-        <v>-221612.5193224575</v>
+        <v>-221709.9784484298</v>
       </c>
       <c r="F6" t="n">
-        <v>303547.5171544385</v>
+        <v>303450.0580284664</v>
       </c>
       <c r="G6" t="n">
-        <v>303547.5171544383</v>
+        <v>303450.0580284664</v>
       </c>
       <c r="H6" t="n">
-        <v>303547.5171544387</v>
+        <v>303450.0580284665</v>
       </c>
       <c r="I6" t="n">
-        <v>303547.5171544386</v>
+        <v>303450.0580284664</v>
       </c>
       <c r="J6" t="n">
-        <v>127124.2979618457</v>
+        <v>127026.8388358734</v>
       </c>
       <c r="K6" t="n">
-        <v>253162.1382438293</v>
+        <v>253143.6445058947</v>
       </c>
       <c r="L6" t="n">
-        <v>285524.4596950967</v>
+        <v>285524.4596950968</v>
       </c>
       <c r="M6" t="n">
-        <v>161066.3512621265</v>
+        <v>161066.3512621266</v>
       </c>
       <c r="N6" t="n">
-        <v>295867.3664959636</v>
+        <v>295867.3664959637</v>
       </c>
       <c r="O6" t="n">
         <v>295867.3664959637</v>
       </c>
       <c r="P6" t="n">
-        <v>251704.7611931181</v>
+        <v>251704.7611931179</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="N2" t="n">
         <v>68.13189012964065</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964062</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>68.13189012964064</v>
       </c>
-      <c r="O2" t="n">
-        <v>68.13189012964062</v>
-      </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26735,46 +26735,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="H3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="F3" t="n">
+      <c r="I3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="G3" t="n">
-        <v>830.3824054541005</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541005</v>
-      </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26790,7 +26790,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26799,16 +26799,16 @@
         <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855715</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108369</v>
+        <v>12.92863350108346</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855699</v>
+        <v>55.20325662855719</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855715</v>
       </c>
     </row>
     <row r="3">
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>23.62333149860808</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>224.2242097209983</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,16 +27537,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>108.3064575600379</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>11.74536275704605</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,10 +27591,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>237.4937090337788</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>348.3589242182375</v>
-      </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853698</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>84.38604621605583</v>
       </c>
       <c r="S7" t="n">
-        <v>71.94894493685982</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>59.66303108493929</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27913,7 +27913,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>30.67660679235399</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28014,16 +28014,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>158.9207969366493</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28056,13 +28056,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>134.9863473781465</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.648459146963432e-12</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28807,7 +28807,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>-1.579747595651265e-14</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855718</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855696</v>
+        <v>55.20325662855718</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,43 +31282,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31458,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,10 +32224,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,37 +32236,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,31 +32309,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32342,7 +32342,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32540,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32637,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H28" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K28" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L28" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33287,10 +33287,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,34 +33725,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q36" t="n">
         <v>227.9948068710956</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33825,10 +33825,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,7 +33971,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33998,10 +33998,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262118</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>321.223725260607</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970350042</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>383.956422297167</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>378.4011515192551</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>336.4270607962773</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004663</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,28 +36121,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>237.7447944281926</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>57.74822800113471</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091992</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N30" t="n">
-        <v>429.2320226761599</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412249</v>
+        <v>67.71102679412269</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584675</v>
+        <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084855</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075295</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341606</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403577</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043172</v>
+        <v>94.42895660043192</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37154,22 +37154,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37236,10 +37236,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>57.74822800113516</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523318</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,19 +37461,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520614</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095691</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086132</v>
+        <v>342.441731308613</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
         <v>304.3692416502435</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,22 +37628,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091999</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>462.5180961366869</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
